--- a/data/metadata/experiments.xlsx
+++ b/data/metadata/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zucfra\Documents\master-thesis\new_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1202A1E0-7A07-4BB2-90B3-B92A68F086AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437E7F30-B7A5-4728-9639-572C8DE0F932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E05B0228-EAC8-4A0B-86C6-C47EB6197EBD}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>data file</t>
   </si>
   <si>
-    <t>membrane id</t>
-  </si>
-  <si>
     <t>COM0251178</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>2023-11-08 clean water - reflux valve open</t>
+  </si>
+  <si>
+    <t>membrane model</t>
   </si>
 </sst>
 </file>
@@ -83,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -126,8 +126,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -136,7 +136,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -459,7 +459,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,30 +478,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>45238</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>3</v>
@@ -509,13 +509,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>6</v>
@@ -526,13 +526,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>45239</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
         <v>0.48501671442215483</v>
@@ -546,13 +546,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
         <v>1.2968958471342356</v>
@@ -566,13 +566,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>45239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
         <v>1.707956466970052</v>
@@ -586,13 +586,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
         <v>45484</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -600,13 +600,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
         <v>45485</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -614,13 +614,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>45488</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
         <v>0.5</v>
@@ -631,13 +631,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>45489</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
         <v>0.25</v>
@@ -648,13 +648,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
         <v>45489</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
         <v>0.125</v>

--- a/data/metadata/experiments.xlsx
+++ b/data/metadata/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zucfra\Documents\master-thesis\new_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437E7F30-B7A5-4728-9639-572C8DE0F932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B90224-DF69-45D8-A8D4-89DE86667C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E05B0228-EAC8-4A0B-86C6-C47EB6197EBD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>data file</t>
   </si>
@@ -42,21 +42,6 @@
     <t>COM0251178</t>
   </si>
   <si>
-    <t>2024-07-11 clean water - reflux valve closed</t>
-  </si>
-  <si>
-    <t>2024-07-12 clean water - reflux valve open</t>
-  </si>
-  <si>
-    <t>2024-07-16 wastewater 0,125 gL-1 - reflux valve open</t>
-  </si>
-  <si>
-    <t>2024-07-15 wastewater 0,500 gL-1 - reflux valve open</t>
-  </si>
-  <si>
-    <t>2024-07-16 wastewater 0,250 gL-1 - reflux valve open</t>
-  </si>
-  <si>
     <t>feed concentration g/L</t>
   </si>
   <si>
@@ -69,13 +54,37 @@
     <t>experiment date</t>
   </si>
   <si>
-    <t>2023-11-09 clean + waste water - reflux valve open</t>
-  </si>
-  <si>
-    <t>2023-11-08 clean water - reflux valve open</t>
-  </si>
-  <si>
     <t>membrane model</t>
+  </si>
+  <si>
+    <t>2023-11-08 tap water - reflux valve open</t>
+  </si>
+  <si>
+    <t>2023-11-09 tap water - reflux valve open</t>
+  </si>
+  <si>
+    <t>2023-11-09 wastewater 0.485 gL - reflux valve open</t>
+  </si>
+  <si>
+    <t>2024-07-15 wastewater 0.500 gL - reflux valve open</t>
+  </si>
+  <si>
+    <t>2024-07-16 wastewater 0.250 gL - reflux valve open</t>
+  </si>
+  <si>
+    <t>2024-07-16 wastewater 0.125 gL - reflux valve open</t>
+  </si>
+  <si>
+    <t>2023-11-09 wastewater 1.297 gL - reflux valve open</t>
+  </si>
+  <si>
+    <t>2024-07-11 tap water - reflux valve closed</t>
+  </si>
+  <si>
+    <t>2024-07-12 tap water - reflux valve open</t>
+  </si>
+  <si>
+    <t>2023-11-09 wastewater 1.708 gL - reflux valve open</t>
   </si>
 </sst>
 </file>
@@ -83,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -126,21 +135,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,7 +468,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -467,35 +476,35 @@
     <col min="1" max="1" width="47.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17" style="7" customWidth="1"/>
     <col min="5" max="5" width="18.08984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.54296875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>45238</v>
@@ -509,7 +518,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>45239</v>
@@ -517,16 +526,13 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>6</v>
-      </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>45239</v>
@@ -534,7 +540,7 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>0.48501671442215483</v>
       </c>
       <c r="E4" s="1">
@@ -546,7 +552,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>45239</v>
@@ -554,7 +560,7 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <v>1.2968958471342356</v>
       </c>
       <c r="E5" s="1">
@@ -566,7 +572,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>45239</v>
@@ -574,7 +580,7 @@
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="8">
         <v>1.707956466970052</v>
       </c>
       <c r="E6" s="1">
@@ -586,7 +592,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>45484</v>
@@ -600,7 +606,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>45485</v>
@@ -614,7 +620,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>45488</v>
@@ -622,7 +628,7 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <v>0.5</v>
       </c>
       <c r="F9" s="1">
@@ -631,7 +637,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>45489</v>
@@ -639,7 +645,7 @@
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <v>0.25</v>
       </c>
       <c r="F10" s="1">
@@ -648,7 +654,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>45489</v>
@@ -656,7 +662,7 @@
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>0.125</v>
       </c>
       <c r="F11" s="1">

--- a/data/metadata/experiments.xlsx
+++ b/data/metadata/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zucfra\Documents\master-thesis\new_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B90224-DF69-45D8-A8D4-89DE86667C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF29641-8075-43E9-913E-D0328547C9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E05B0228-EAC8-4A0B-86C6-C47EB6197EBD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>data file</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>feed concentration g/L</t>
-  </si>
-  <si>
-    <t>feed concentration measured at row</t>
   </si>
   <si>
     <t>number of membranes used</t>
@@ -465,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80625EAD-3A5D-4BED-BE6C-041CF272DDD3}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,20 +474,19 @@
     <col min="2" max="2" width="15.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="15.54296875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -498,13 +494,10 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>45238</v>
@@ -512,13 +505,16 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>45239</v>
@@ -526,13 +522,16 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>45239</v>
@@ -544,15 +543,12 @@
         <v>0.48501671442215483</v>
       </c>
       <c r="E4" s="1">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>45239</v>
@@ -564,15 +560,12 @@
         <v>1.2968958471342356</v>
       </c>
       <c r="E5" s="1">
-        <v>79</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>45239</v>
@@ -584,15 +577,12 @@
         <v>1.707956466970052</v>
       </c>
       <c r="E6" s="1">
-        <v>154</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>45484</v>
@@ -600,13 +590,16 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>45485</v>
@@ -614,13 +607,16 @@
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>45488</v>
@@ -631,13 +627,13 @@
       <c r="D9" s="7">
         <v>0.5</v>
       </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>45489</v>
@@ -648,13 +644,13 @@
       <c r="D10" s="7">
         <v>0.25</v>
       </c>
-      <c r="F10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>45489</v>
@@ -665,7 +661,7 @@
       <c r="D11" s="7">
         <v>0.125</v>
       </c>
-      <c r="F11" s="1">
+      <c r="E11" s="1">
         <v>3</v>
       </c>
     </row>

--- a/data/metadata/experiments.xlsx
+++ b/data/metadata/experiments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zucfra\Documents\master-thesis\new_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zucfra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF29641-8075-43E9-913E-D0328547C9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20714AB-9A5C-48EB-8A58-442F9422D01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E05B0228-EAC8-4A0B-86C6-C47EB6197EBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E05B0228-EAC8-4A0B-86C6-C47EB6197EBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,34 +54,34 @@
     <t>membrane model</t>
   </si>
   <si>
-    <t>2023-11-08 tap water - reflux valve open</t>
-  </si>
-  <si>
-    <t>2023-11-09 tap water - reflux valve open</t>
-  </si>
-  <si>
-    <t>2023-11-09 wastewater 0.485 gL - reflux valve open</t>
-  </si>
-  <si>
-    <t>2024-07-15 wastewater 0.500 gL - reflux valve open</t>
-  </si>
-  <si>
-    <t>2024-07-16 wastewater 0.250 gL - reflux valve open</t>
-  </si>
-  <si>
-    <t>2024-07-16 wastewater 0.125 gL - reflux valve open</t>
-  </si>
-  <si>
-    <t>2023-11-09 wastewater 1.297 gL - reflux valve open</t>
-  </si>
-  <si>
-    <t>2024-07-11 tap water - reflux valve closed</t>
-  </si>
-  <si>
-    <t>2024-07-12 tap water - reflux valve open</t>
-  </si>
-  <si>
-    <t>2023-11-09 wastewater 1.708 gL - reflux valve open</t>
+    <t>2023-11-08 #1 tap water - reflux valve open</t>
+  </si>
+  <si>
+    <t>2023-11-09 #1 tap water - reflux valve open</t>
+  </si>
+  <si>
+    <t>2023-11-09 #2 wastewater 0.485 gL - reflux valve open</t>
+  </si>
+  <si>
+    <t>2023-11-09 #3 wastewater 1.297 gL - reflux valve open</t>
+  </si>
+  <si>
+    <t>2023-11-09 #4 wastewater 1.708 gL - reflux valve open</t>
+  </si>
+  <si>
+    <t>2024-07-11 #1 tap water - reflux valve closed</t>
+  </si>
+  <si>
+    <t>2024-07-12 #1 tap water - reflux valve open</t>
+  </si>
+  <si>
+    <t>2024-07-15 #1 wastewater 0.500 gL - reflux valve open</t>
+  </si>
+  <si>
+    <t>2024-07-16 #1 wastewater 0.250 gL - reflux valve open</t>
+  </si>
+  <si>
+    <t>2024-07-16 #2 wastewater 0.125 gL - reflux valve open</t>
   </si>
 </sst>
 </file>
@@ -89,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -141,11 +141,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -465,20 +465,20 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -512,7 +512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -529,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,9 +546,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>45239</v>
@@ -563,9 +563,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>45239</v>
@@ -580,9 +580,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>45484</v>
@@ -597,9 +597,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>45485</v>
@@ -614,9 +614,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>45488</v>
@@ -631,9 +631,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>45489</v>
@@ -648,9 +648,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>45489</v>
